--- a/docs/csv/BiBBS__full_data_dictionary.xlsx
+++ b/docs/csv/BiBBS__full_data_dictionary.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="BiBBS_Baseline" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="BiBBS_CohortInfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BiBBS_Geographic" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1316">
   <si>
     <t xml:space="preserve">project</t>
   </si>
@@ -3784,6 +3785,189 @@
   </si>
   <si>
     <t xml:space="preserve">BiBBS_CohortInfo.partner.n_pregnancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch_core_geog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_address_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.date_address_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of latest available address data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.age_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants actual age (months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_closest_data_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.age_closest_data_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age at data point closest to participants actual age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temporal_accuracy_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.temporal_accuracy_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference in months between participants age at closest data point and actual a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSOA11CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.LSOA11CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSOA 2011 code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD21CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.WD21CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward 2021 code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_in_bfd_la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.is_in_bfd_la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is participant in Bradford LA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_in_bibbs_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.is_in_bibbs_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is participant in BiBBS area?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.data_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of data: registration (1) or tracing (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration|Tracing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is participant in BiB (1) or BiBBS (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiB|BiBBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_in_eng_wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.not_in_eng_wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if address is not in England or Wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing_address_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.missing_address_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if record has missing address data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poor_qual_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.poor_qual_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if record has poor quality data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house_nbhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.age_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD_2010_decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2010_decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD 2010 decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD_2010_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2010_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD 2010 score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD_2019_decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2019_decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD 2019 decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD_2019_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2019_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD 2019 score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.house_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terraced|Semi-Detached|Self Contained Flat (Includes Maisonette / Apartment)|Detached|Other</t>
   </si>
 </sst>
 </file>
@@ -3851,6 +4035,24 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I57" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:I57"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="project"/>
+    <tableColumn id="2" name="table"/>
+    <tableColumn id="3" name="variable"/>
+    <tableColumn id="4" name="full_name"/>
+    <tableColumn id="5" name="label"/>
+    <tableColumn id="6" name="value_type"/>
+    <tableColumn id="7" name="description"/>
+    <tableColumn id="8" name="categories"/>
+    <tableColumn id="9" name="categories_label"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I20" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I20"/>
   <tableColumns count="9">
     <tableColumn id="1" name="project"/>
     <tableColumn id="2" name="table"/>
@@ -14398,4 +14600,621 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="16.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="12.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="22.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="52.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="80.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="91.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="9.15" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="9.15" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="9.15" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="9.15" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="9.15" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.15" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="9.15" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="9.15" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="9.15" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="9.15" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="9.15" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="9.15" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="9.15" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="9.15" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="9.15" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="9.15" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="9.15" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="9.15" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="9.15" hidden="0" customWidth="1"/>
+    <col min="29" max="29" width="9.15" hidden="0" customWidth="1"/>
+    <col min="30" max="30" width="9.15" hidden="0" customWidth="1"/>
+    <col min="31" max="31" width="9.15" hidden="0" customWidth="1"/>
+    <col min="32" max="32" width="9.15" hidden="0" customWidth="1"/>
+    <col min="33" max="33" width="9.15" hidden="0" customWidth="1"/>
+    <col min="34" max="34" width="9.15" hidden="0" customWidth="1"/>
+    <col min="35" max="35" width="9.15" hidden="0" customWidth="1"/>
+    <col min="36" max="36" width="9.15" hidden="0" customWidth="1"/>
+    <col min="37" max="37" width="9.15" hidden="0" customWidth="1"/>
+    <col min="38" max="38" width="9.15" hidden="0" customWidth="1"/>
+    <col min="39" max="39" width="9.15" hidden="0" customWidth="1"/>
+    <col min="40" max="40" width="9.15" hidden="0" customWidth="1"/>
+    <col min="41" max="41" width="9.15" hidden="0" customWidth="1"/>
+    <col min="42" max="42" width="9.15" hidden="0" customWidth="1"/>
+    <col min="43" max="43" width="9.15" hidden="0" customWidth="1"/>
+    <col min="44" max="44" width="9.15" hidden="0" customWidth="1"/>
+    <col min="45" max="45" width="9.15" hidden="0" customWidth="1"/>
+    <col min="46" max="46" width="9.15" hidden="0" customWidth="1"/>
+    <col min="47" max="47" width="9.15" hidden="0" customWidth="1"/>
+    <col min="48" max="48" width="9.15" hidden="0" customWidth="1"/>
+    <col min="49" max="49" width="9.15" hidden="0" customWidth="1"/>
+    <col min="50" max="50" width="9.15" hidden="0" customWidth="1"/>
+    <col min="51" max="51" width="9.15" hidden="0" customWidth="1"/>
+    <col min="52" max="52" width="9.15" hidden="0" customWidth="1"/>
+    <col min="53" max="53" width="9.15" hidden="0" customWidth="1"/>
+    <col min="54" max="54" width="9.15" hidden="0" customWidth="1"/>
+    <col min="55" max="55" width="9.15" hidden="0" customWidth="1"/>
+    <col min="56" max="56" width="9.15" hidden="0" customWidth="1"/>
+    <col min="57" max="57" width="9.15" hidden="0" customWidth="1"/>
+    <col min="58" max="58" width="9.15" hidden="0" customWidth="1"/>
+    <col min="59" max="59" width="9.15" hidden="0" customWidth="1"/>
+    <col min="60" max="60" width="9.15" hidden="0" customWidth="1"/>
+    <col min="61" max="61" width="9.15" hidden="0" customWidth="1"/>
+    <col min="62" max="62" width="9.15" hidden="0" customWidth="1"/>
+    <col min="63" max="63" width="9.15" hidden="0" customWidth="1"/>
+    <col min="64" max="64" width="9.15" hidden="0" customWidth="1"/>
+    <col min="65" max="65" width="9.15" hidden="0" customWidth="1"/>
+    <col min="66" max="66" width="9.15" hidden="0" customWidth="1"/>
+    <col min="67" max="67" width="9.15" hidden="0" customWidth="1"/>
+    <col min="68" max="68" width="9.15" hidden="0" customWidth="1"/>
+    <col min="69" max="69" width="9.15" hidden="0" customWidth="1"/>
+    <col min="70" max="70" width="9.15" hidden="0" customWidth="1"/>
+    <col min="71" max="71" width="9.15" hidden="0" customWidth="1"/>
+    <col min="72" max="72" width="9.15" hidden="0" customWidth="1"/>
+    <col min="73" max="73" width="9.15" hidden="0" customWidth="1"/>
+    <col min="74" max="74" width="9.15" hidden="0" customWidth="1"/>
+    <col min="75" max="75" width="9.15" hidden="0" customWidth="1"/>
+    <col min="76" max="76" width="9.15" hidden="0" customWidth="1"/>
+    <col min="77" max="77" width="9.15" hidden="0" customWidth="1"/>
+    <col min="78" max="78" width="9.15" hidden="0" customWidth="1"/>
+    <col min="79" max="79" width="9.15" hidden="0" customWidth="1"/>
+    <col min="80" max="80" width="9.15" hidden="0" customWidth="1"/>
+    <col min="81" max="81" width="9.15" hidden="0" customWidth="1"/>
+    <col min="82" max="82" width="9.15" hidden="0" customWidth="1"/>
+    <col min="83" max="83" width="9.15" hidden="0" customWidth="1"/>
+    <col min="84" max="84" width="9.15" hidden="0" customWidth="1"/>
+    <col min="85" max="85" width="9.15" hidden="0" customWidth="1"/>
+    <col min="86" max="86" width="9.15" hidden="0" customWidth="1"/>
+    <col min="87" max="87" width="9.15" hidden="0" customWidth="1"/>
+    <col min="88" max="88" width="9.15" hidden="0" customWidth="1"/>
+    <col min="89" max="89" width="9.15" hidden="0" customWidth="1"/>
+    <col min="90" max="90" width="9.15" hidden="0" customWidth="1"/>
+    <col min="91" max="91" width="9.15" hidden="0" customWidth="1"/>
+    <col min="92" max="92" width="9.15" hidden="0" customWidth="1"/>
+    <col min="93" max="93" width="9.15" hidden="0" customWidth="1"/>
+    <col min="94" max="94" width="9.15" hidden="0" customWidth="1"/>
+    <col min="95" max="95" width="9.15" hidden="0" customWidth="1"/>
+    <col min="96" max="96" width="9.15" hidden="0" customWidth="1"/>
+    <col min="97" max="97" width="9.15" hidden="0" customWidth="1"/>
+    <col min="98" max="98" width="9.15" hidden="0" customWidth="1"/>
+    <col min="99" max="99" width="9.15" hidden="0" customWidth="1"/>
+    <col min="100" max="100" width="9.15" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/csv/BiBBS__full_data_dictionary.xlsx
+++ b/docs/csv/BiBBS__full_data_dictionary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1330">
   <si>
     <t xml:space="preserve">project</t>
   </si>
@@ -3914,6 +3914,48 @@
   </si>
   <si>
     <t xml:space="preserve">Indicates if record has poor quality data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_core_geog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.date_address_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.age_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.age_closest_data_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.temporal_accuracy_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.LSOA11CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.WD21CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.is_in_bfd_la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.is_in_bibbs_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.data_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.not_in_eng_wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.missing_address_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.poor_qual_data</t>
   </si>
   <si>
     <t xml:space="preserve">house_nbhd</t>
@@ -3973,7 +4015,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -4051,8 +4093,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I20" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I33" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I33"/>
   <tableColumns count="9">
     <tableColumn id="1" name="project"/>
     <tableColumn id="2" name="table"/>
@@ -4346,10 +4388,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -13155,10 +13197,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -14603,10 +14645,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -15076,16 +15118,16 @@
         <v>1298</v>
       </c>
       <c r="C15" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D15" t="s">
         <v>1299</v>
       </c>
       <c r="E15" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -15099,13 +15141,13 @@
         <v>1298</v>
       </c>
       <c r="C16" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D16" t="s">
         <v>1300</v>
       </c>
-      <c r="D16" t="s">
-        <v>1301</v>
-      </c>
       <c r="E16" t="s">
-        <v>1302</v>
+        <v>1262</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -15122,13 +15164,13 @@
         <v>1298</v>
       </c>
       <c r="C17" t="s">
-        <v>1303</v>
+        <v>1263</v>
       </c>
       <c r="D17" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E17" t="s">
-        <v>1305</v>
+        <v>1265</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -15145,13 +15187,13 @@
         <v>1298</v>
       </c>
       <c r="C18" t="s">
-        <v>1306</v>
+        <v>1266</v>
       </c>
       <c r="D18" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="E18" t="s">
-        <v>1308</v>
+        <v>1268</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -15168,16 +15210,16 @@
         <v>1298</v>
       </c>
       <c r="C19" t="s">
-        <v>1309</v>
+        <v>1269</v>
       </c>
       <c r="D19" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="E19" t="s">
-        <v>1311</v>
+        <v>1271</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -15191,23 +15233,350 @@
         <v>1298</v>
       </c>
       <c r="C20" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B28" t="s">
         <v>1312</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C28" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D28" t="s">
         <v>1313</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E28" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C29" t="s">
         <v>1314</v>
       </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" t="s">
+      <c r="D29" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" t="s">
         <v>81</v>
       </c>
-      <c r="I20" t="s">
-        <v>1315</v>
+      <c r="I33" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>

--- a/docs/csv/BiBBS__full_data_dictionary.xlsx
+++ b/docs/csv/BiBBS__full_data_dictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1333">
   <si>
     <t xml:space="preserve">project</t>
   </si>
@@ -3998,6 +3998,15 @@
   </si>
   <si>
     <t xml:space="preserve">IMD 2019 score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD_2019_decile_bfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2019_decile_bfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD 2019 decile - reclassified using only Bradford LSOA</t>
   </si>
   <si>
     <t xml:space="preserve">house_type</t>
@@ -4093,8 +4102,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I33" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I34" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I34"/>
   <tableColumns count="9">
     <tableColumn id="1" name="project"/>
     <tableColumn id="2" name="table"/>
@@ -15572,11 +15581,34 @@
         <v>14</v>
       </c>
       <c r="G33"/>
-      <c r="H33" t="s">
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" t="s">
         <v>81</v>
       </c>
-      <c r="I33" t="s">
-        <v>1329</v>
+      <c r="I34" t="s">
+        <v>1332</v>
       </c>
     </row>
   </sheetData>

--- a/docs/csv/BiBBS__full_data_dictionary.xlsx
+++ b/docs/csv/BiBBS__full_data_dictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="2192">
   <si>
     <t xml:space="preserve">project</t>
   </si>
@@ -3790,22 +3790,22 @@
     <t xml:space="preserve">BiBBS_Geographic</t>
   </si>
   <si>
-    <t xml:space="preserve">ch_core_geog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_address_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.date_address_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of latest available address data</t>
+    <t xml:space="preserve">bibbs_geog_person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParticipantType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.ParticipantType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants relationship in the family</t>
   </si>
   <si>
     <t xml:space="preserve">age_m</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.age_m</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.age_m</t>
   </si>
   <si>
     <t xml:space="preserve">Participants actual age (months)</t>
@@ -3814,43 +3814,145 @@
     <t xml:space="preserve">age_closest_data_point</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.age_closest_data_point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age at data point closest to participants actual age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temporal_accuracy_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.temporal_accuracy_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference in months between participants age at closest data point and actual a</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.age_closest_data_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age at latest available address data (months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_address_data_received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.date_address_data_received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of latest available address data for this time point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months_to_closest_data_received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.months_to_closest_data_received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time (months) to most recently received address data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.property_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique ID of property (BiB generated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.move_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative number of times participant moved house including current data point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_moves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.total_moves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of times participant has moved house within BiB study period</t>
   </si>
   <si>
     <t xml:space="preserve">LSOA11CD</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.LSOA11CD</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.LSOA11CD</t>
   </si>
   <si>
     <t xml:space="preserve">LSOA 2011 code</t>
   </si>
   <si>
+    <t xml:space="preserve">data_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.data_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of data: registration or tracing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration|Tracing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_in_eng_wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.not_in_eng_wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes (1) sensitive columns have been set to NA to avoid disclosure of data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_historical_address_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.no_historical_address_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes (1) then no address data was available for any time point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low_qual_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.low_qual_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes (1), the geocoded data is of unreliable quality and has been removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_data_interpolated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_person.is_data_interpolated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes (1), address record has been interpolated from closest available data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibbs_geog_property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_property.LSOA11CD</t>
+  </si>
+  <si>
     <t xml:space="preserve">WD21CD</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.WD21CD</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_property.WD21CD</t>
   </si>
   <si>
     <t xml:space="preserve">Ward 2021 code</t>
   </si>
   <si>
+    <t xml:space="preserve">property_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_property.property_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terraced|Semi-Detached|Detached|Flat (including Maisonette/Apartment)|Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">is_in_bfd_la</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.is_in_bfd_la</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_property.is_in_bfd_la</t>
   </si>
   <si>
     <t xml:space="preserve">Is participant in Bradford LA?</t>
@@ -3859,115 +3961,28 @@
     <t xml:space="preserve">is_in_bibbs_area</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.is_in_bibbs_area</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_property.is_in_bibbs_area</t>
   </si>
   <si>
     <t xml:space="preserve">Is participant in BiBBS area?</t>
   </si>
   <si>
-    <t xml:space="preserve">data_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.data_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of data: registration (1) or tracing (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration|Tracing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is participant in BiB (1) or BiBBS (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiB|BiBBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_in_eng_wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.not_in_eng_wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates if address is not in England or Wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing_address_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.missing_address_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates if record has missing address data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poor_qual_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ch_core_geog.poor_qual_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates if record has poor quality data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad_core_geog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.date_address_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.age_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.age_closest_data_point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.temporal_accuracy_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.LSOA11CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.WD21CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.is_in_bfd_la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.is_in_bibbs_area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.data_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.not_in_eng_wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.missing_address_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.ad_core_geog.poor_qual_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">house_nbhd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.age_m</t>
+    <t xml:space="preserve">is_in_caz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_property.is_in_caz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is participant in clean air zone (CAZ)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibbs_geog_lsoa</t>
   </si>
   <si>
     <t xml:space="preserve">IMD_2010_decile</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2010_decile</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.IMD_2010_decile</t>
   </si>
   <si>
     <t xml:space="preserve">IMD 2010 decile</t>
@@ -3976,7 +3991,7 @@
     <t xml:space="preserve">IMD_2010_score</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2010_score</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.IMD_2010_score</t>
   </si>
   <si>
     <t xml:space="preserve">IMD 2010 score</t>
@@ -3985,7 +4000,7 @@
     <t xml:space="preserve">IMD_2019_decile</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2019_decile</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.IMD_2019_decile</t>
   </si>
   <si>
     <t xml:space="preserve">IMD 2019 decile</t>
@@ -3994,7 +4009,7 @@
     <t xml:space="preserve">IMD_2019_score</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2019_score</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.IMD_2019_score</t>
   </si>
   <si>
     <t xml:space="preserve">IMD 2019 score</t>
@@ -4003,22 +4018,2584 @@
     <t xml:space="preserve">IMD_2019_decile_bfd</t>
   </si>
   <si>
-    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.IMD_2019_decile_bfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMD 2019 decile - reclassified using only Bradford LSOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">house_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BiBBS_Geographic.house_nbhd.house_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terraced|Semi-Detached|Self Contained Flat (Includes Maisonette / Apartment)|Detached|Other</t>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.IMD_2019_decile_bfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMD 2019 decile - reclassified for only Bradford LSOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDACI_2019_decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.IDACI_2019_decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Deprivation Affecting Children Index (IDACI) 2019 decile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDACI_2019_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.IDACI_2019_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Deprivation Affecting Children Index (IDACI) 2019 score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDI_2011_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.TDI_2011_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Townsend deprivation index (score) using 2011 census data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDI_2011_quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_lsoa.TDI_2011_quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Townsend deprivation index (quintile) using 2011 census data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibbs_geog_air_quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 100m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 100m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 100m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 100m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 300m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 300m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 300m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 300m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 500m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 500m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 500m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 500m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 1000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 1000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_1000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_1000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 1000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 1000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 2000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 2000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmcd_pm10_g_1_2000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmcd_pm10_g_1_2000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 2000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 2000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM2.5 within 100m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 100m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM2.5 within 100m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 100m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM2.5 within 300m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 300m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM2.5 within 300m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 300m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM2.5 within 500m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 500m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM2.5 within 500m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 500m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM2.5 within 1000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 1000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_1000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_1000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM2.5 within 1000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 1000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM2.5 within 2000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 2000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_g_1_2000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_g_1_2000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM2.5 within 2000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 2000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of NO2 within 100m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 100m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of NO2 within 100m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 100m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of NO2 within 300m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 300m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of NO2 within 300m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 300m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of NO2 within 500m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 500m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of NO2 within 500m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 500m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of NO2 within 1000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 1000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_1000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_1000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of NO2 within 1000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 1000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of NO2 within 2000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 2000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_g_1_2000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_g_1_2000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of NO2 within 2000m circular buffer of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 2000m circular buffer around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm10_i_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm10_i_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 100m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm)  in micrograms within 100m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm10_i_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm10_i_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 100m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 100m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_i_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_i_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM2.5 within 100m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 100m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_i_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_i_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM2.5 within 100m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 100m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_i_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_i_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of NO2 within 100m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 100m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_i_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_i_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of NO2 within 100m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 100m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm10_i_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm10_i_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 300m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 300m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm10_i_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm10_i_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 300m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 300m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_i_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_i_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM2.5 within 300m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 300m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_i_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_i_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM2.5 within 300m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 300m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_i_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_i_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of NO2 within 300m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 300m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_i_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_i_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of NO2 within 300m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 300m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm10_i_2500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm10_i_2500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 500m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 500m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm10_i_2500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm10_i_2500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 500m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 500m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_i_2500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_i_2500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM2.5 within 500m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 500m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm25_i_2500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm25_i_2500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM2.5 within 500m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM2.5 &lt; 2.5µm) in micrograms within 500m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_i_2500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_i_2500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of NO2 within 500m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 500m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_nox_i_2500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_nox_i_2500_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of NO2 within 500m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of nitrogen oxide (NOx expressed as NO2) in micrograms within 500m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm10_i_2_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm10_i_2_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean conc of PM10 within 1000m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration of Particulate Matter (PM10 &lt; 10µm)  in micrograms within 1000m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aq_2018_cbmdc_pm10_i_2_1000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_air_quality.aq_2018_cbmdc_pm10_i_2_1000_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max conc of PM10 within 1000m street network area of home address, 2018 CBMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum concentration of Particulate Matter (PM10 &lt; 10µm) in micrograms within 1000m street network based catchment area around the home address, using 2018 data from the City of Bradford Metropolitan District Council.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibbs_geog_built_env_indoor_qual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_inspection_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_inspection_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date that inspection was actually carried out by energy assessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date that the inspection was actually carried out by the energy assessor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_construction_age_band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_construction_age_band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age band when building part constructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age band when building part constructed. England &amp; Wales only. One of: before 1900; 1900-1929; 1930-1949; 1950-1966; 1967-1975; 1976-1982; 1983-1990; 1991-1995; 1996-2002; 2003-2006; 2007-2011; 2012 onwards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_built_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_built_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The building type of address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The building type of the property, e.g., Detached, Semi-Detached, Terrace, etc..Together with the Property Type, the Build Form produces a structured description of the property.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_property_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_property_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The property type of address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes the type of property such as House, Flat, Maisonette etc. This is the type differentiator for dwellings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_floor_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_floor_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor level relative to lowest level of property \(0 for ground floor\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor level relative to the lowest level of the property (0 for ground floor). If there is a basement, the basement is level 0 and the other floors are from 1 upwards. Measure only availabe for flats and maisonettes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_flat_storey_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_flat_storey_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of storeys in apartment block. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of storeys in the apartment block. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_flat_top_storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_flat_top_storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether flat is on top storey. Measure availabe for flats only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the flat is on the top storey. Measure availabe for flats only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_total_floor_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_total_floor_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total m2 of all enclosed spaces measured to internal face of external walls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total useful floor area in square meter is the total of all enclosed spaces measured to the internal face of the external walls, i.e., the gross floor area as measured in accordance with the guidance issued from time to time by the Royal Institute of Chartered Surveyors or by a body replacing that institution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_floor_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_floor_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean height of storey in metres. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average height of the storey in metres. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_number_heated_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_number_heated_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of heated rooms in property if &gt; half of habitable rooms are not heated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of heated rooms in the property if more than half of the habitable rooms are not heated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_number_habitable_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_number_habitable_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of rooms used/intended to be used for sleeping/living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitable rooms include any living room, sitting room, dining room, bedroom, study and similar; and also a non-separated conservatory. A kitchen/diner having a discrete seating area (with space for a table and four chairs) also counts as a habitable room. A non-separated conservatory adds to the habitable room count if it has an internal quality door between it and the dwelling. Excluded from the room count are any room used solely as a kitchen, utility room, bathroom, cloakroom, en-suite accommodation and similar and any hallway, stairs or landing; and also any room not having a window. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_extension_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_extension_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of extensions added to property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of extensions added to the property.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_glazed_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_glazed_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranged estimate of total glazed area of habitable area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranged estimate of the total glazed area of the habitable area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_glazed_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_glazed_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of glazing, using Fenestration Rating Council\/manufacturer declaration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of glazing, using British Fenestration Rating Council or manufacturer declaration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_energy_use_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_energy_use_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current estimated total energy consumption for property inkWh/m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current estimated total energy consumption for the property in a 12-month period in kilowatt hours per square metre (kWh/m²).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_energy_use_potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_energy_use_potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated potential total energy consumption for property inkWh/m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated potential total energy consumption for the property in a 12-month period in kilowatt hours per square metre (kWh/m²).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_hot_water_cost_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_hot_water_cost_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current estimated annual energy costs for hot water in GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current estimated annual energy costs for hot water in GBP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_heating_cost_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_heating_cost_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current estimated annual energy costs for heating property in GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current estimated annual energy costs for heating the property in GBP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_lighting_cost_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_lighting_cost_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current estimated annual energy costs for lighting property in GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current estimated annual energy costs for lighting the property in GBP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_potential_energy_effcncy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_potential_energy_effcncy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The potential energy efficiency rating of property. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The potential energy efficiency rating of the property. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_current_energy_effcncy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_current_energy_effcncy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy used for heating, water and lighting multiplied by fuel costs \(£m2year\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy efficiency based on cost of energy, i.e. energy required for space heating, water heating and lighting (in kWh/year) multiplied by fuel costs. (£/m²/year where cost is derived from kWh).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_potential_energy_rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_potential_energy_rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated potential energy rating converted into a linear 'A to G' rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated potential energy rating converted into a linear 'A to G' rating (where A is the most energy efficient and G is the least energy efficient).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_current_energy_rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_current_energy_rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current energy rating converted into a linear 'A to G' rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current energy rating converted into a linear 'A to G' rating (where A is the most energy efficient and G is the least energy efficient).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_transaction_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_transaction_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of transaction that triggered assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of transaction that triggered assessment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq_2021_tenure_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.iq_2021_tenure_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes tenure type of property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes the tenure type of the property.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_footprint_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_footprint_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of building footprint of building containing home address in m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of the building footprint of the building containing the home address in square meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_height_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_height_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of building containing home address in meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of the building containing the home address in meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_volume_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_volume_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of building containing home address in cubic m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of the building containing the home address in cubic square meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_floorarea_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_floorarea_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor area of building containing home address in m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor area of the building containing the home address in square meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_fsi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_fsi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor-space index (FSI) of block containing home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor-space index (FSI) of the block containing the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_gsi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_gsi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground-space index (GSI) of block containing home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground-space index (GSI) of the block containing the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_osr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_osr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open-space ratio (OSR) of block containing home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open-space ratio (OSR) of the block containing the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_l_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_l_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean building layers of floors (L) of block containing home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average building layers of floors (L) of the block containing the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_blockarea_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_blockarea_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of block containing home address in m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of the block containing the home address in square meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_footprint_c_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_footprint_c_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of all building footprints within block containing home address in m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of all building footprints within the block containing the home address in square meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_height_c_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_height_c_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean height of all buildings within block containing home address in meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average height of all buildings within the block containing the home address in meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_floorarea_c_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_floorarea_c_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of floor area within block containing home address in m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of floor area within the block containing the home address in square meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_volume_c_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_volume_c_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of volume of all buildings within block containing home address in m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of volume of all buildings within the block containing the home address in square meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be_2021_volume_density_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_built_env_indoor_qual.be_2021_volume_density_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume density of block containing home address in m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume density of the block containing the home address in square meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibbs_geog_public_transport_traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.001) count of airports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.001) count of airports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.003) count of airports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.003) count of airports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.005) count of airports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.005) count of airports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.007) count of airports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.007) count of airports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.01) count of airports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.01) count of airports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of airports within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of airports within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of airports within street network of 500m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of airports within street network based distance of 500m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of airports within street network of 1000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of airports within street network based distance of 1000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of airports within street network of 2000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of airports within street network based distance of 2000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean distance to all airports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average distance to all airports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_air_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_air_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to closest airport in meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to the closest airport in meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.001) count of bus stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.001) count of bus stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.003) count of bus stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.003) count of bus stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.005) count of bus stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.005) count of bus stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.007) count of bus stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.007) count of bus stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.01) count of bus stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.01) count of bus stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of bus stops within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of bus stops within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of bus stops within street network of 500m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of bus stops within street network based distance of 500m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of bus stops within street network of 1000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of bus stops within street network based distance of 1000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of bus stops within street network of 2000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of bus stops within street network based distance of 2000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean distance to all bus stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average distance to all bus stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_bus_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_bus_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to closest bus stop in meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to the closest bus stop in meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.001) count of coach stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.001) count of coach stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.003) count of coach stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.003) count of coach stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.005) count of coach stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.005) count of coach stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.007) count of coach stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.007) count of coach stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.01) count of coach stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.01) count of coach stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of coach stops within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of coach stops within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of coach stops within street network of 500m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of coach stops within street network based distance of 500m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of coach stops within street network of 1000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of coach stops within street network based distance of 1000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of coach stops within street network of 2000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of coach stops within street network based distance of 2000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean distance to all coach stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average distance to all coach stop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_coach_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_coach_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to closest coach stop in meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to the closest coach stop in meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.001) count of metro stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.001) count of metro stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.003) count of metro stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.003) count of metro stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.005) count of metro stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.005) count of metro stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.007) count of metro stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.007) count of metro stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.01) count of metro stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.01) count of metro stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of metro stations within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of metro stations within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of metro stations within street network of 500m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of metro stations within street network based distance of 500m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of metro stations within street network of 1000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of metro stations within street network based distance of 1000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of metro stations within street network of 2000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of metro stations within street network based distance of 2000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean distance to all metro stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average distance to all metro stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_metro_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_metro_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to closest metro station in meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to the closest metro station in meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_e_4_0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.001) count of rail stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.001) count of rail stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_e_4_0_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.003) count of rail stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.003) count of rail stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_e_4_0_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.005) count of rail stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.005) count of rail stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_e_4_0_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (0.007) count of rail stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance decay weighted (parameter β = 0.007) count of rail stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_e_4_0_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_f_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of rail stations within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of rail stations within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_f_2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of rail stations within street network of 500m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of rail stations within street network based distance of 500m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_f_2_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of rail stations within street network of 1000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of rail stations within street network based distance of 1000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_count_f_2_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of rail stations within street network of 2000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of rail stations within street network based distance of 2000m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_distance_f_2_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean distance to all rail stations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average distance to all rail stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_2021_rail_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.pt_2021_rail_closest_d_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to closest rail station in meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to the closest rail station in meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_count_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_count_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean number of vehicles during morning period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of vehicles during morning period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_cong_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_cong_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean congestion during morning period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average congestion during morning period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_count_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_count_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean number of vehicles during intermediate period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of vehicles during intermediate period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_cong_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_cong_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean vehicle congestion during intermediate period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average congestion of vehicles during intermediate period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_count_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_count_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean number of vehicles during evening period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of vehicles during evening period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_cong_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_cong_f_2_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean vehicle congestion during evening period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average congestion of vehicles during evening period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_count_f_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_count_f_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max number of vehicles during morning period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of vehicles during morning period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_cong_f_2_300_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_cong_f_2_300_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during morning period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during morning period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_count_f_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_count_f_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max number of vehicles during intermediate period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of vehicles during intermediate period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_cong_f_2_300_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_cong_f_2_300_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during intermediate period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during intermediate period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_count_f_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_count_f_2_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max number of vehicles during evening period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of vehicles during evening period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_cong_f_2_300_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_cong_f_2_300_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during evening period within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during evening period within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_count_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_count_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean number of vehicles during morning period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of vehicles during morning period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_cong_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_cong_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean congestion during morning period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average congestion during morning period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_count_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_count_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean number of vehicles during intermediate period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of vehicles during intermediate period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_cong_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_cong_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean vehicle congestion during intermediate period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average congestion of vehicles during intermediate period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_count_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_count_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean number of vehicles during evening period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of vehicles during evening period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_cong_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_cong_f_2_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean vehicle congestion during evening period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average congestion of vehicles during evening period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_count_f_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_count_f_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max number of vehicles during morning period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of vehicles during morning period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_cong_f_2_100_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_cong_f_2_100_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during morning period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during morning period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_count_f_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_count_f_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max number of vehicles during intermediate period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of vehicles during intermediate period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_cong_f_2_100_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_cong_f_2_100_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during intermediate period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during intermediate period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_count_f_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_count_f_2_100_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max number of vehicles during evening period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of vehicles during evening period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_cong_f_2_100_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_cong_f_2_100_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during evening period within street network of 100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum congestion during evening period within street network based distance of 100m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_count_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_count_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of vehicles during morning period at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of vehicles during morning period at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_am_cong_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_am_cong_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestion during morning period at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestion during morning period at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_count_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_count_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of vehicles during intermediate period at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of vehicles during intermediate period at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_ip_cong_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_ip_cong_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestion during intermediate period at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestion during intermediate period at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_count_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_count_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of vehicles during evening period at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of vehicles during evening period at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_2019_pm_cong_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_public_transport_traffic.tr_2019_pm_cong_closest_b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestion during evening period at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestion during evening period at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibbs_geog_sc_walkability_lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r500_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r500_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max value of angular betweenness centrality (r500m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum value of angular betweenness centrality (radius 500m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r1000_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r1000_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max value of angular betweenness centrality (r1000m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum value of angular betweenness centrality (radius 1000m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r1500_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r1500_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max value of angular betweenness centrality (r1500m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum value of angular betweenness centrality (radius 1500m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r2000_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r2000_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max value of angular betweenness centrality (r2000m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum value of angular betweenness centrality (radius 2000m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r500_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r500_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max value of angular closeness centrality (r500m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum value of angular closeness centrality (radius 500m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r1000_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r1000_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max value of angular closeness centrality (r1000m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum value of angular closeness centrality (radius 1000m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r1500_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r1500_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max value of angular closeness centrality (r1500m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum value of angular closeness centrality (radius 1500m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r2000_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r2000_f32_300_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max value of angular closeness centrality (r2000m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum value of angular closeness centrality (radius 2000m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r500_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r500_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean value of angular betweenness centrality (r500m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average value of angular betweenness centrality (radius 500m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r1000_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r1000_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean value of angular betweenness centrality (r1000m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average value of angular betweenness centrality (radius 1000m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r1500_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r1500_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean value of angular betweenness centrality (r1500m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average value of angular betweenness centrality (radius 1500m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r2000_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r2000_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean value of angular betweenness centrality (r2000m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average value of angular betweenness centrality (radius 2000m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r500_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r500_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean value of angular closeness centrality (r500m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average value of angular closeness centrality (radius 500m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r1000_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r1000_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean value of angular closeness centrality (r1000m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average value of angular closeness centrality (radius 1000m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r1500_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r1500_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean value of angular closeness centrality (r1500m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average value of angular closeness centrality (radius 1500m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r2000_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r2000_f32_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean value of angular closeness centrality (r2000m) within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average value of angular closeness centrality (radius 2000m) within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r500_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r500_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular betweenness centrality (r500m) at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular betweenness centrality (radius 500m) at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r1000_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r1000_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular betweenness centrality (r1000m) at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular betweenness centrality (radius 1000m) at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r1500_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r1500_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular betweenness centrality (r1500m) at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular betweenness centrality (radius 1500m) at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_btwn_r2000_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_btwn_r2000_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular betweenness centrality (r2000m) at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular betweenness centrality (radius 2000m) at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r500_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r500_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular closeness centrality (r500m) at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular closeness centrality (radius 500m) at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r1000_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r1000_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular closeness centrality (r1000m) at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular closeness centrality (radius 1000m) at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r1500_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r1500_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular closeness centrality (r1500m) at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular closeness centrality (radius 1500m) at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_close_r2000_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_close_r2000_b_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular closeness centrality (r2000m) at residential street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular closeness centrality (radius 2000m) at the residential street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc_2021_distance_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.sc_2021_distance_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean distance to street segments in meters within street network 300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average distance to street segments in meters within street network based distance of 300m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wa_2019_walk_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.wa_2019_walk_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean walkability within 100m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average walkability within 100m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wa_2019_walk_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.wa_2019_walk_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean walkability within 300m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average walkability within 300m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wa_2019_walk_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.wa_2019_walk_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean walkability within 500m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average walkability within 500m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wa_2019_walk_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.wa_2019_walk_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean walkability within 1000m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average walkability within 1000m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wa_2019_walk_g_1_1500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.wa_2019_walk_g_1_1500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean walkability within 1500m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average walkability within 1500m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wa_2019_walk_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.wa_2019_walk_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean walkability within 2000m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average walkability within 2000m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la_2019_LandUseInt_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.la_2019_LandUseInt_g_1_100_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean intensity of land_use (SDI) within 100m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average intensity of lande-uses (Shannon’s Diversity Index) within 100m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la_2019_LandUseInt_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.la_2019_LandUseInt_g_1_300_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean intensity of land_use (SDI) within 300m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average intensity of lande-uses (Shannon’s Diversity Index) within 300m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la_2019_LandUseInt_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.la_2019_LandUseInt_g_1_500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean intensity of land_use (SDI) within 500m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average intensity of lande-uses (Shannon’s Diversity Index) within 500m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la_2019_LandUseInt_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.la_2019_LandUseInt_g_1_1000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean intensity of land_use (SDI) within 1000m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average intensity of lande-uses (Shannon’s Diversity Index) within 1000m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la_2019_LandUseInt_g_1_1500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.la_2019_LandUseInt_g_1_1500_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean intensity of land_use (SDI) within 1500m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average intensity of lande-uses (Shannon’s Diversity Index) within 1500m circular buffer around the home address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la_2019_LandUseInt_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiBBS_Geographic.bibbs_geog_sc_walkability_lu.la_2019_LandUseInt_g_1_2000_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean intensity of land_use (SDI) within 2000m circular buffer of home address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average intensity of lande-uses (Shannon’s Diversity Index) within 2000m circular buffer around the home address.</t>
   </si>
 </sst>
 </file>
@@ -4102,8 +6679,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I34" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I241" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I241"/>
   <tableColumns count="9">
     <tableColumn id="1" name="project"/>
     <tableColumn id="2" name="table"/>
@@ -14662,14 +17239,14 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="16.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="12.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="22.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="52.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="80.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="35.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="32.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="84.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="83.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="250.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="91.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="75.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="9.15" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="9.15" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="9.15" hidden="0" customWidth="1"/>
@@ -14809,7 +17386,7 @@
         <v>1259</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -14878,7 +17455,7 @@
         <v>1268</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -14901,7 +17478,7 @@
         <v>1271</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -14950,12 +17527,8 @@
         <v>14</v>
       </c>
       <c r="G8"/>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -14977,12 +17550,8 @@
         <v>14</v>
       </c>
       <c r="G9"/>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -15001,15 +17570,11 @@
         <v>1283</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G10"/>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1284</v>
-      </c>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -15019,13 +17584,13 @@
         <v>1256</v>
       </c>
       <c r="C11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D11" t="s">
         <v>1285</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1286</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1287</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -15035,7 +17600,7 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="12">
@@ -15046,13 +17611,13 @@
         <v>1256</v>
       </c>
       <c r="C12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D12" t="s">
         <v>1289</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1290</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1291</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -15073,13 +17638,13 @@
         <v>1256</v>
       </c>
       <c r="C13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D13" t="s">
         <v>1292</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1293</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1294</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -15100,13 +17665,13 @@
         <v>1256</v>
       </c>
       <c r="C14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D14" t="s">
         <v>1295</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1296</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1297</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -15124,42 +17689,46 @@
         <v>1255</v>
       </c>
       <c r="B15" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D15" t="s">
         <v>1298</v>
       </c>
-      <c r="C15" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1299</v>
       </c>
-      <c r="E15" t="s">
-        <v>1259</v>
-      </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>1255</v>
       </c>
       <c r="B16" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C16" t="s">
-        <v>1260</v>
+        <v>1281</v>
       </c>
       <c r="D16" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E16" t="s">
-        <v>1262</v>
+        <v>1283</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -15170,19 +17739,19 @@
         <v>1255</v>
       </c>
       <c r="B17" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C17" t="s">
-        <v>1263</v>
+        <v>1302</v>
       </c>
       <c r="D17" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E17" t="s">
-        <v>1265</v>
+        <v>1304</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -15193,85 +17762,97 @@
         <v>1255</v>
       </c>
       <c r="B18" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C18" t="s">
-        <v>1266</v>
+        <v>1305</v>
       </c>
       <c r="D18" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="E18" t="s">
-        <v>1268</v>
+        <v>1307</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1308</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>1255</v>
       </c>
       <c r="B19" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C19" t="s">
-        <v>1269</v>
+        <v>1309</v>
       </c>
       <c r="D19" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
       <c r="E19" t="s">
-        <v>1271</v>
+        <v>1311</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>1255</v>
       </c>
       <c r="B20" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C20" t="s">
-        <v>1272</v>
+        <v>1312</v>
       </c>
       <c r="D20" t="s">
-        <v>1304</v>
+        <v>1313</v>
       </c>
       <c r="E20" t="s">
-        <v>1274</v>
+        <v>1314</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>1255</v>
       </c>
       <c r="B21" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C21" t="s">
-        <v>1275</v>
+        <v>1315</v>
       </c>
       <c r="D21" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="E21" t="s">
-        <v>1277</v>
+        <v>1317</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -15289,178 +17870,154 @@
         <v>1255</v>
       </c>
       <c r="B22" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="C22" t="s">
-        <v>1278</v>
+        <v>1319</v>
       </c>
       <c r="D22" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="E22" t="s">
-        <v>1280</v>
+        <v>1321</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22"/>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
+      <c r="H22"/>
+      <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>1255</v>
       </c>
       <c r="B23" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="C23" t="s">
-        <v>1281</v>
+        <v>1322</v>
       </c>
       <c r="D23" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="E23" t="s">
-        <v>1283</v>
+        <v>1324</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23"/>
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1284</v>
-      </c>
+      <c r="H23"/>
+      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>1255</v>
       </c>
       <c r="B24" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="C24" t="s">
-        <v>1285</v>
+        <v>1325</v>
       </c>
       <c r="D24" t="s">
-        <v>1308</v>
+        <v>1326</v>
       </c>
       <c r="E24" t="s">
-        <v>1287</v>
+        <v>1327</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24"/>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1288</v>
-      </c>
+      <c r="H24"/>
+      <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>1255</v>
       </c>
       <c r="B25" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="C25" t="s">
-        <v>1289</v>
+        <v>1328</v>
       </c>
       <c r="D25" t="s">
-        <v>1309</v>
+        <v>1329</v>
       </c>
       <c r="E25" t="s">
-        <v>1291</v>
+        <v>1330</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
+      <c r="H25"/>
+      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>1255</v>
       </c>
       <c r="B26" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="C26" t="s">
-        <v>1292</v>
+        <v>1331</v>
       </c>
       <c r="D26" t="s">
-        <v>1310</v>
+        <v>1332</v>
       </c>
       <c r="E26" t="s">
-        <v>1294</v>
+        <v>1333</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
+      <c r="H26"/>
+      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>1255</v>
       </c>
       <c r="B27" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="C27" t="s">
-        <v>1295</v>
+        <v>1334</v>
       </c>
       <c r="D27" t="s">
-        <v>1311</v>
+        <v>1335</v>
       </c>
       <c r="E27" t="s">
-        <v>1297</v>
+        <v>1336</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s">
-        <v>39</v>
-      </c>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>1255</v>
       </c>
       <c r="B28" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="C28" t="s">
-        <v>1260</v>
+        <v>1337</v>
       </c>
       <c r="D28" t="s">
-        <v>1313</v>
+        <v>1338</v>
       </c>
       <c r="E28" t="s">
-        <v>1262</v>
+        <v>1339</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -15474,16 +18031,16 @@
         <v>1255</v>
       </c>
       <c r="B29" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="C29" t="s">
-        <v>1314</v>
+        <v>1340</v>
       </c>
       <c r="D29" t="s">
-        <v>1315</v>
+        <v>1341</v>
       </c>
       <c r="E29" t="s">
-        <v>1316</v>
+        <v>1342</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -15497,16 +18054,16 @@
         <v>1255</v>
       </c>
       <c r="B30" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="C30" t="s">
-        <v>1317</v>
+        <v>1343</v>
       </c>
       <c r="D30" t="s">
-        <v>1318</v>
+        <v>1344</v>
       </c>
       <c r="E30" t="s">
-        <v>1319</v>
+        <v>1345</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -15520,21 +18077,23 @@
         <v>1255</v>
       </c>
       <c r="B31" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="C31" t="s">
-        <v>1320</v>
+        <v>1347</v>
       </c>
       <c r="D31" t="s">
-        <v>1321</v>
+        <v>1348</v>
       </c>
       <c r="E31" t="s">
-        <v>1322</v>
+        <v>1349</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G31"/>
+      <c r="G31" t="s">
+        <v>1350</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
     </row>
@@ -15543,21 +18102,23 @@
         <v>1255</v>
       </c>
       <c r="B32" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="C32" t="s">
-        <v>1323</v>
+        <v>1351</v>
       </c>
       <c r="D32" t="s">
-        <v>1324</v>
+        <v>1352</v>
       </c>
       <c r="E32" t="s">
-        <v>1325</v>
+        <v>1353</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="G32"/>
+      <c r="G32" t="s">
+        <v>1354</v>
+      </c>
       <c r="H32"/>
       <c r="I32"/>
     </row>
@@ -15566,21 +18127,23 @@
         <v>1255</v>
       </c>
       <c r="B33" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="C33" t="s">
-        <v>1326</v>
+        <v>1355</v>
       </c>
       <c r="D33" t="s">
-        <v>1327</v>
+        <v>1356</v>
       </c>
       <c r="E33" t="s">
-        <v>1328</v>
+        <v>1357</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33"/>
+      <c r="G33" t="s">
+        <v>1358</v>
+      </c>
       <c r="H33"/>
       <c r="I33"/>
     </row>
@@ -15589,27 +18152,5200 @@
         <v>1255</v>
       </c>
       <c r="B34" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="C34" t="s">
-        <v>1329</v>
+        <v>1359</v>
       </c>
       <c r="D34" t="s">
-        <v>1330</v>
+        <v>1360</v>
       </c>
       <c r="E34" t="s">
-        <v>1331</v>
+        <v>1361</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G34"/>
-      <c r="H34" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1332</v>
-      </c>
+      <c r="G34" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F81" t="s">
+        <v>202</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1595</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F102" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H108"/>
+      <c r="I108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H110"/>
+      <c r="I110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H112"/>
+      <c r="I112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H113"/>
+      <c r="I113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H114"/>
+      <c r="I114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H115"/>
+      <c r="I115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H116"/>
+      <c r="I116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H118"/>
+      <c r="I118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H119"/>
+      <c r="I119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H120"/>
+      <c r="I120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H122"/>
+      <c r="I122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H124"/>
+      <c r="I124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H125"/>
+      <c r="I125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H127"/>
+      <c r="I127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H128"/>
+      <c r="I128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H129"/>
+      <c r="I129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H130"/>
+      <c r="I130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H132"/>
+      <c r="I132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H141"/>
+      <c r="I141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H143"/>
+      <c r="I143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H144"/>
+      <c r="I144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H145"/>
+      <c r="I145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H146"/>
+      <c r="I146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H147"/>
+      <c r="I147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H150"/>
+      <c r="I150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H151"/>
+      <c r="I151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H152"/>
+      <c r="I152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H153"/>
+      <c r="I153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H154"/>
+      <c r="I154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H155"/>
+      <c r="I155"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1852</v>
+      </c>
+      <c r="H156"/>
+      <c r="I156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H157"/>
+      <c r="I157"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H158"/>
+      <c r="I158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H159"/>
+      <c r="I159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H160"/>
+      <c r="I160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H161"/>
+      <c r="I161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H162"/>
+      <c r="I162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H163"/>
+      <c r="I163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H164"/>
+      <c r="I164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H165"/>
+      <c r="I165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H166"/>
+      <c r="I166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H167"/>
+      <c r="I167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H168"/>
+      <c r="I168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H169"/>
+      <c r="I169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H170"/>
+      <c r="I170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H171"/>
+      <c r="I171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H172"/>
+      <c r="I172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1918</v>
+      </c>
+      <c r="H173"/>
+      <c r="I173"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H174"/>
+      <c r="I174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H175"/>
+      <c r="I175"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H176"/>
+      <c r="I176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H177"/>
+      <c r="I177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H178"/>
+      <c r="I178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H179"/>
+      <c r="I179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H180"/>
+      <c r="I180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H181"/>
+      <c r="I181"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H182"/>
+      <c r="I182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H183"/>
+      <c r="I183"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H184"/>
+      <c r="I184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H185"/>
+      <c r="I185"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F186" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H186"/>
+      <c r="I186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H187"/>
+      <c r="I187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F188" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H188"/>
+      <c r="I188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F189" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H189"/>
+      <c r="I189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F190" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H190"/>
+      <c r="I190"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F191" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H191"/>
+      <c r="I191"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H192"/>
+      <c r="I192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F193" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H193"/>
+      <c r="I193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H194"/>
+      <c r="I194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H195"/>
+      <c r="I195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H196"/>
+      <c r="I196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E197" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F197" t="s">
+        <v>14</v>
+      </c>
+      <c r="G197" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H197"/>
+      <c r="I197"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E198" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H198"/>
+      <c r="I198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H199"/>
+      <c r="I199"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E200" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F200" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H200"/>
+      <c r="I200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E201" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H201"/>
+      <c r="I201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E202" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H202"/>
+      <c r="I202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E203" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H203"/>
+      <c r="I203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E204" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F204" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H204"/>
+      <c r="I204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E205" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H205"/>
+      <c r="I205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E206" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F206" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H206"/>
+      <c r="I206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E207" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
+      </c>
+      <c r="G207" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H207"/>
+      <c r="I207"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E208" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H208"/>
+      <c r="I208"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E209" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F209" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H209"/>
+      <c r="I209"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E210" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H210"/>
+      <c r="I210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E211" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F211" t="s">
+        <v>14</v>
+      </c>
+      <c r="G211" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H211"/>
+      <c r="I211"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E212" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F212" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H212"/>
+      <c r="I212"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E213" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" t="s">
+        <v>2079</v>
+      </c>
+      <c r="H213"/>
+      <c r="I213"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E214" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H214"/>
+      <c r="I214"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E215" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s">
+        <v>2087</v>
+      </c>
+      <c r="H215"/>
+      <c r="I215"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E216" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F216" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H216"/>
+      <c r="I216"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E217" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F217" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H217"/>
+      <c r="I217"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E218" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F218" t="s">
+        <v>14</v>
+      </c>
+      <c r="G218" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H218"/>
+      <c r="I218"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E219" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H219"/>
+      <c r="I219"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E220" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s">
+        <v>2107</v>
+      </c>
+      <c r="H220"/>
+      <c r="I220"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E221" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F221" t="s">
+        <v>14</v>
+      </c>
+      <c r="G221" t="s">
+        <v>2111</v>
+      </c>
+      <c r="H221"/>
+      <c r="I221"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E222" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F222" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H222"/>
+      <c r="I222"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E223" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H223"/>
+      <c r="I223"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E224" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F224" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" t="s">
+        <v>2123</v>
+      </c>
+      <c r="H224"/>
+      <c r="I224"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E225" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F225" t="s">
+        <v>14</v>
+      </c>
+      <c r="G225" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H225"/>
+      <c r="I225"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E226" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s">
+        <v>2131</v>
+      </c>
+      <c r="H226"/>
+      <c r="I226"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E227" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F227" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" t="s">
+        <v>2135</v>
+      </c>
+      <c r="H227"/>
+      <c r="I227"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E228" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F228" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H228"/>
+      <c r="I228"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B229" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E229" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F229" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H229"/>
+      <c r="I229"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E230" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H230"/>
+      <c r="I230"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E231" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H231"/>
+      <c r="I231"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E232" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F232" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H232"/>
+      <c r="I232"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E233" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F233" t="s">
+        <v>14</v>
+      </c>
+      <c r="G233" t="s">
+        <v>2159</v>
+      </c>
+      <c r="H233"/>
+      <c r="I233"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E234" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F234" t="s">
+        <v>14</v>
+      </c>
+      <c r="G234" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H234"/>
+      <c r="I234"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E235" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F235" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H235"/>
+      <c r="I235"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E236" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F236" t="s">
+        <v>14</v>
+      </c>
+      <c r="G236" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H236"/>
+      <c r="I236"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E237" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F237" t="s">
+        <v>14</v>
+      </c>
+      <c r="G237" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H237"/>
+      <c r="I237"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E238" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F238" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H238"/>
+      <c r="I238"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E239" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F239" t="s">
+        <v>14</v>
+      </c>
+      <c r="G239" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H239"/>
+      <c r="I239"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E240" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F240" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H240"/>
+      <c r="I240"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E241" t="s">
+        <v>2190</v>
+      </c>
+      <c r="F241" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" t="s">
+        <v>2191</v>
+      </c>
+      <c r="H241"/>
+      <c r="I241"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
